--- a/RP_TR_integration_Section3.xlsx
+++ b/RP_TR_integration_Section3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Chamodi\Machine_Learning\Pressure_history_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5550ACC3-48A2-4139-97BA-68BD4548BFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16205864-006C-4307-9E4A-FD33060C8706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="4500" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18560" yWindow="4530" windowWidth="18280" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1070,6 +1070,20 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1097,20 +1111,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1125,7 +1125,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C236CA5-794E-462C-A578-55E34EF33C15}" name="Table1" displayName="Table1" ref="A1:I300" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C236CA5-794E-462C-A578-55E34EF33C15}" name="Table1" displayName="Table1" ref="A1:I300" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:I300" xr:uid="{2C236CA5-794E-462C-A578-55E34EF33C15}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I300">
     <sortCondition ref="I1:I300"/>
@@ -1434,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H305"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
